--- a/Sorption Experiments/RaPYR_pH7/RaPYR_pH7 Equilibrated Data.xlsx
+++ b/Sorption Experiments/RaPYR_pH7/RaPYR_pH7 Equilibrated Data.xlsx
@@ -450,10 +450,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.25555555555556</v>
+        <v>1.24833333333333</v>
       </c>
       <c r="C2">
-        <v>0.0914881481481482</v>
+        <v>0.0912531666666667</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -461,10 +461,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1.22944444444444</v>
+        <v>1.217</v>
       </c>
       <c r="C3">
-        <v>0.0905690740740741</v>
+        <v>0.09010668</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -472,10 +472,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1.25388888888889</v>
+        <v>1.25733333333333</v>
       </c>
       <c r="C4">
-        <v>0.0914920925925926</v>
+        <v>0.09158416</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -483,10 +483,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>4.26444444444444</v>
+        <v>4.271</v>
       </c>
       <c r="C5">
-        <v>0.168729851851852</v>
+        <v>0.16878992</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -494,10 +494,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>4.33333333333333</v>
+        <v>4.36466666666667</v>
       </c>
       <c r="C6">
-        <v>0.170011111111111</v>
+        <v>0.170571173333333</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -505,10 +505,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>4.59</v>
+        <v>4.63233333333333</v>
       </c>
       <c r="C7">
-        <v>0.175032</v>
+        <v>0.175750726666667</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -516,10 +516,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>17.5288888888889</v>
+        <v>17.603</v>
       </c>
       <c r="C8">
-        <v>0.34239762962963</v>
+        <v>0.34290644</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -527,10 +527,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>17.7972222222222</v>
+        <v>17.7466666666667</v>
       </c>
       <c r="C9">
-        <v>0.34407962962963</v>
+        <v>0.3439304</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -538,10 +538,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>17.7572222222222</v>
+        <v>17.9223333333333</v>
       </c>
       <c r="C10">
-        <v>0.343898203703704</v>
+        <v>0.345542586666667</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -549,10 +549,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>33.8188888888889</v>
+        <v>33.962</v>
       </c>
       <c r="C11">
-        <v>0.475719037037037</v>
+        <v>0.47614724</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -560,10 +560,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>35.0183333333333</v>
+        <v>34.8266666666667</v>
       </c>
       <c r="C12">
-        <v>0.483253</v>
+        <v>0.482001066666667</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -571,10 +571,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>34.5738888888889</v>
+        <v>34.5783333333333</v>
       </c>
       <c r="C13">
-        <v>0.480577055555556</v>
+        <v>0.480638833333333</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -582,10 +582,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>79.1894444444444</v>
+        <v>78.6723333333333</v>
       </c>
       <c r="C14">
-        <v>0.728542888888889</v>
+        <v>0.725358913333333</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -593,10 +593,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>86.7294444444444</v>
+        <v>86.241</v>
       </c>
       <c r="C15">
-        <v>0.76032812962963</v>
+        <v>0.75719598</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -604,10 +604,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>86.6688888888889</v>
+        <v>86.4766666666667</v>
       </c>
       <c r="C16">
-        <v>0.762686222222222</v>
+        <v>0.760994666666667</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -615,10 +615,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>168.104444444444</v>
+        <v>168.513333333333</v>
       </c>
       <c r="C17">
-        <v>1.059058</v>
+        <v>1.061634</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -626,10 +626,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>165.715</v>
+        <v>166.426333333333</v>
       </c>
       <c r="C18">
-        <v>1.05505216666667</v>
+        <v>1.05514295333333</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -637,10 +637,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>166.048333333333</v>
+        <v>166.140333333333</v>
       </c>
       <c r="C19">
-        <v>1.05163944444444</v>
+        <v>1.05000690666667</v>
       </c>
     </row>
   </sheetData>
